--- a/Data/data_IHPC_cropped_otsu.xlsx
+++ b/Data/data_IHPC_cropped_otsu.xlsx
@@ -410,31 +410,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>16250</v>
+        <v>15766</v>
       </c>
       <c r="C2" t="n">
-        <v>885.5117543935776</v>
+        <v>873.9554054737091</v>
       </c>
       <c r="D2" t="n">
-        <v>72.95037078857422</v>
+        <v>75.08179473876953</v>
       </c>
       <c r="E2" t="n">
-        <v>419.4786682128906</v>
+        <v>418.406982421875</v>
       </c>
       <c r="F2" t="n">
-        <v>246.2145195007324</v>
+        <v>246.7443885803223</v>
       </c>
       <c r="G2" t="n">
-        <v>110540</v>
+        <v>105840</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8954667703574091</v>
+        <v>0.8573928258967629</v>
       </c>
       <c r="I2" t="n">
-        <v>12904</v>
+        <v>17604</v>
       </c>
       <c r="J2" t="n">
-        <v>0.104533229642591</v>
+        <v>0.1426071741032371</v>
       </c>
     </row>
     <row r="3">
@@ -442,19 +442,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>20589</v>
+        <v>21294</v>
       </c>
       <c r="C3" t="n">
-        <v>1179.959581375122</v>
+        <v>1104.621487855911</v>
       </c>
       <c r="D3" t="n">
-        <v>68.55776214599609</v>
+        <v>65.03654479980469</v>
       </c>
       <c r="E3" t="n">
-        <v>446.9917602539062</v>
+        <v>522.0303344726562</v>
       </c>
       <c r="F3" t="n">
-        <v>257.7747611999512</v>
+        <v>293.5334396362305</v>
       </c>
     </row>
     <row r="4">
@@ -462,19 +462,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>14374</v>
+        <v>12785</v>
       </c>
       <c r="C4" t="n">
-        <v>967.5188946723938</v>
+        <v>769.168608546257</v>
       </c>
       <c r="D4" t="n">
-        <v>160.8920593261719</v>
+        <v>137.1619110107422</v>
       </c>
       <c r="E4" t="n">
-        <v>187.7090454101562</v>
+        <v>187.4485931396484</v>
       </c>
       <c r="F4" t="n">
-        <v>174.3005523681641</v>
+        <v>162.3052520751953</v>
       </c>
     </row>
     <row r="5">
@@ -482,19 +482,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>33044</v>
+        <v>32262</v>
       </c>
       <c r="C5" t="n">
-        <v>1242.101716756821</v>
+        <v>1242.486492753029</v>
       </c>
       <c r="D5" t="n">
-        <v>116.8902282714844</v>
+        <v>111.2029113769531</v>
       </c>
       <c r="E5" t="n">
-        <v>392.5130615234375</v>
+        <v>404.1264953613281</v>
       </c>
       <c r="F5" t="n">
-        <v>254.7016448974609</v>
+        <v>257.6647033691406</v>
       </c>
     </row>
     <row r="6">
@@ -502,19 +502,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>6208</v>
+        <v>5438</v>
       </c>
       <c r="C6" t="n">
-        <v>615.6366448402405</v>
+        <v>560.3818116188049</v>
       </c>
       <c r="D6" t="n">
-        <v>36.24453353881836</v>
+        <v>30.98872947692871</v>
       </c>
       <c r="E6" t="n">
-        <v>223.820556640625</v>
+        <v>227.9197235107422</v>
       </c>
       <c r="F6" t="n">
-        <v>130.0325450897217</v>
+        <v>129.4542264938354</v>
       </c>
     </row>
     <row r="7">
@@ -522,19 +522,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>10951</v>
+        <v>9640</v>
       </c>
       <c r="C7" t="n">
-        <v>702.6488374471664</v>
+        <v>648.3229365348816</v>
       </c>
       <c r="D7" t="n">
-        <v>59.79914093017578</v>
+        <v>53.30303955078125</v>
       </c>
       <c r="E7" t="n">
-        <v>281.5478515625</v>
+        <v>285.8368835449219</v>
       </c>
       <c r="F7" t="n">
-        <v>170.6734962463379</v>
+        <v>169.5699615478516</v>
       </c>
     </row>
     <row r="8">
@@ -542,19 +542,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>5024</v>
+        <v>4487</v>
       </c>
       <c r="C8" t="n">
-        <v>420.0487704277039</v>
+        <v>388.1076455116272</v>
       </c>
       <c r="D8" t="n">
-        <v>56.07027816772461</v>
+        <v>55.23519134521484</v>
       </c>
       <c r="E8" t="n">
-        <v>155.3026428222656</v>
+        <v>153.6703643798828</v>
       </c>
       <c r="F8" t="n">
-        <v>105.6864604949951</v>
+        <v>104.4527778625488</v>
       </c>
     </row>
   </sheetData>
